--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Provincia-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,13 +590,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>114,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>248,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>114,74%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>248,26%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>137,57%</t>
         </is>
@@ -668,49 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 8,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,98</t>
+          <t>5,16; 14,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,73</t>
+          <t>1,21; 5,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,88</t>
+          <t>4,54; 342,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,08; 658,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 372,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>65,66; 647,75</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,3; 409,32</t>
+          <t>26,18; 513,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>473,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>80,17%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>473,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>158,96%</t>
         </is>
@@ -768,49 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 7,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,31</t>
+          <t>2,48; 7,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,79</t>
+          <t>4,95; 11,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,29</t>
+          <t>8,14; 209,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>131,25; 1745,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 206,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>115,25; 1508,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>68,36; 305,79</t>
+          <t>73,65; 302,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>188,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>246,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>188,89%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>246,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>46,45%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 9,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,57</t>
+          <t>0,98; 7,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,43</t>
+          <t>0,71; 8,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,02</t>
+          <t>24,19; 539,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,28; 811,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 712,02</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 966,08</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 103,7</t>
+          <t>4,46; 96,61</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>226,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>226,59%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>160,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>27,6%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,66; 13,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,22</t>
+          <t>3,95; 12,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 12,15</t>
+          <t>-3,69; 7,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 7,19</t>
+          <t>90,77; 537,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,14; 377,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,45; 469,48</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>51,41; 377,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-31,68; 94,35</t>
+          <t>-28,94; 94,4</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>110,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>110,67%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>123,01%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>96,68%</t>
         </is>
@@ -1068,49 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 15,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 16,66</t>
+          <t>0,97; 10,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 11,06</t>
+          <t>-1,02; 10,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,33</t>
+          <t>21,7; 274,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,03; 436,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,69; 292,78</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 395,1</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 236,99</t>
+          <t>-8,5; 252,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,40 +1004,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,83%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>152,17%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>68,49%</t>
         </is>
@@ -1168,49 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 5,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,21</t>
+          <t>0,58; 7,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,72</t>
+          <t>4,89; 15,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,63</t>
+          <t>-39,28; 167,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 526,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 174,19</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 539,45</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>28,2; 124,91</t>
+          <t>28,66; 120,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,40 +1084,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>251,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>251,21%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>124,84%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>94,17%</t>
         </is>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 9,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,24</t>
+          <t>2,24; 7,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,82</t>
+          <t>-0,46; 13,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 13,99</t>
+          <t>107,56; 532,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,26; 264,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>107,43; 555,58</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>42,48; 275,66</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-13,81; 182,37</t>
+          <t>-2,07; 181,49</t>
         </is>
       </c>
     </row>
@@ -1320,40 +1164,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>339,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>339,88%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>214,32%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>283,21%</t>
         </is>
@@ -1368,42 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,64; 8,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,9</t>
+          <t>4,25; 9,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,81</t>
+          <t>6,78; 13,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,8</t>
+          <t>131,44; 795,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,13; 412,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>143,84; 791,75</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>98,59; 407,23</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>141,22; 770,67</t>
+          <t>137,85; 735,59</t>
         </is>
       </c>
     </row>
@@ -1420,40 +1244,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>159,87%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>159,87%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>186,74%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>109,25%</t>
         </is>
@@ -1468,42 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 6,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,03</t>
+          <t>4,69; 7,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,13</t>
+          <t>4,51; 8,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,18</t>
+          <t>111,2; 217,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>132,22; 256,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>108,48; 224,91</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>132,91; 263,77</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>69,62; 167,63</t>
+          <t>68,6; 159,89</t>
         </is>
       </c>
     </row>
@@ -1516,16 +1320,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
